--- a/TrainerLab/Templates/AnthropometryTemplate.xlsx
+++ b/TrainerLab/Templates/AnthropometryTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\TrainerLab\TrainerLab\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104B8B43-6779-408F-88F1-D73B0E2B4D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3575B3C8-B429-4E67-BA85-D2845F949F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21720" windowHeight="12615" xr2:uid="{E43FFEC9-664E-4CBC-AC53-89D7104F66A2}"/>
   </bookViews>
@@ -425,6 +425,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -455,44 +482,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2495,8 +2495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68533EFA-9A09-4C6C-ADD7-C7215B090838}">
   <dimension ref="A8:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="N58" sqref="N58"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2510,35 +2510,35 @@
   </cols>
   <sheetData>
     <row r="8" spans="1:12" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -2547,24 +2547,24 @@
       <c r="A10" s="4"/>
       <c r="C10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -2581,56 +2581,56 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="33"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="33"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="33"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:12" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="35"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
@@ -2643,17 +2643,17 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
@@ -2685,17 +2685,17 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -2746,23 +2746,23 @@
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="28"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -2822,17 +2822,17 @@
     </row>
     <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:9" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="27"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="21"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -2858,75 +2858,66 @@
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:9" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="27"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="21"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="37" t="s">
+      <c r="A62" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:9" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="27"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="21"/>
     </row>
     <row r="65" spans="1:9" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="16"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="18"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="A58:I58"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="A65:I65"/>
     <mergeCell ref="A29:B29"/>
@@ -2943,8 +2934,17 @@
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="A58:I58"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
